--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonsymhoven/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc-danielscherer/Studium/02 Semester/3. Semester/Datenkommunikation/Praktikum/Datenkommunikation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39793C4-2021-A749-86E4-2B4CC24CC6D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3794A29C-D29D-9F45-A9DD-A8369E6AD7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -18,54 +18,7 @@
     <sheet name="Kommunikationsplan" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Projektplan!$A$13:$A$18</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Projektplan!$C$12</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Projektplan!$C$13:$C$18</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Projektplan!$D$3:$D$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Projektplan!$E$12</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Projektplan!$E$13:$E$18</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Projektplan!$E$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Projektplan!$E$3:$E$4</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Projektplan!$A$13:$A$18</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Projektplan!$C$12</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Projektplan!$C$13:$C$18</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Projektplan!$D$3:$D$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Projektplan!$C$13:$C$18</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Projektplan!$E$12</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Projektplan!$E$13:$E$18</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Projektplan!$E$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Projektplan!$E$3:$E$4</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Projektplan!$A$13:$A$18</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Projektplan!$C$12</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Projektplan!$C$13:$C$18</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Projektplan!$D$3:$D$4</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Projektplan!$E$12</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Projektplan!$E$13:$E$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Projektplan!$D$3:$D$4</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Projektplan!$E$2</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Projektplan!$E$3:$E$4</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Projektplan!$A$13:$A$18</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Projektplan!$C$12</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Projektplan!$C$13:$C$18</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Projektplan!$D$3:$D$4</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Projektplan!$E$12</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Projektplan!$E$13:$E$18</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Projektplan!$E$2</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Projektplan!$E$3:$E$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Projektplan!$E$12</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Projektplan!$A$13:$A$18</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Projektplan!$C$12</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Projektplan!$C$13:$C$18</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Projektplan!$D$3:$D$4</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Projektplan!$E$12</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Projektplan!$E$13:$E$18</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Projektplan!$E$2</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Projektplan!$E$3:$E$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Projektplan!$E$13:$E$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Projektplan!$E$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Projektplan!$E$3:$E$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Projektplan!$A$13:$A$18</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Projektplan!$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Stakeholder-Liste'!$A$3:$F$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Start</t>
   </si>
@@ -193,9 +146,6 @@
     <t>Gruppeneinteilung</t>
   </si>
   <si>
-    <t>Einarbeitung (Teilaufgabe 1)</t>
-  </si>
-  <si>
     <t>Audit-Log-Server (Teilaufgabe 2)</t>
   </si>
   <si>
@@ -215,6 +165,23 @@
   </si>
   <si>
     <t>alle</t>
+  </si>
+  <si>
+    <t>Einarbeitung (Teilaufgabe 1)
+Powerpoint-Foliensatz mit Grafiken 
+(Architekturskizzen, Klassenmodel- le, Ablaufdiagramme, Sequenzdiagramme, Zustandsautomaten, ...) verständlich dokumentieren</t>
+  </si>
+  <si>
+    <t>Simon Potye</t>
+  </si>
+  <si>
+    <t>Simon Symhoven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magdalena Hegel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc-Daniel Scherer </t>
   </si>
 </sst>
 </file>
@@ -222,7 +189,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -450,7 +417,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -496,14 +463,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -516,15 +483,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -563,7 +533,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -615,7 +585,9 @@
                   <c:v>Gruppeneinteilung</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Einarbeitung (Teilaufgabe 1)</c:v>
+                  <c:v>Einarbeitung (Teilaufgabe 1)
+Powerpoint-Foliensatz mit Grafiken 
+(Architekturskizzen, Klassenmodel- le, Ablaufdiagramme, Sequenzdiagramme, Zustandsautomaten, ...) verständlich dokumentieren</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Audit-Log-Server (Teilaufgabe 2)</c:v>
@@ -686,11 +658,6 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -701,11 +668,6 @@
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -716,11 +678,6 @@
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -731,11 +688,6 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -746,11 +698,6 @@
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -761,11 +708,6 @@
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -776,11 +718,6 @@
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -791,11 +728,6 @@
             <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000010-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -806,11 +738,6 @@
             <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000012-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -821,11 +748,6 @@
             <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000014-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -836,11 +758,6 @@
             <c:idx val="10"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000016-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -851,11 +768,6 @@
             <c:idx val="11"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000018-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -866,11 +778,6 @@
             <c:idx val="12"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001A-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -881,11 +788,6 @@
             <c:idx val="13"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001C-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -896,11 +798,6 @@
             <c:idx val="14"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001E-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
@@ -1045,7 +942,9 @@
                   <c:v>Gruppeneinteilung</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Einarbeitung (Teilaufgabe 1)</c:v>
+                  <c:v>Einarbeitung (Teilaufgabe 1)
+Powerpoint-Foliensatz mit Grafiken 
+(Architekturskizzen, Klassenmodel- le, Ablaufdiagramme, Sequenzdiagramme, Zustandsautomaten, ...) verständlich dokumentieren</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Audit-Log-Server (Teilaufgabe 2)</c:v>
@@ -1149,10 +1048,10 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43751</c:v>
+                  <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43751</c:v>
+                  <c:v>43761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,6 +1152,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="55387359"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1634,7 +1534,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1656,10 +1556,10 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19">
@@ -1672,7 +1572,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="30">
         <f ca="1">TODAY()</f>
-        <v>43751</v>
+        <v>43761</v>
       </c>
       <c r="E3" s="13">
         <v>0</v>
@@ -1686,7 +1586,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="30">
         <f ca="1">TODAY()</f>
-        <v>43751</v>
+        <v>43761</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
@@ -1740,7 +1640,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="23">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="28" t="s">
@@ -1787,7 +1687,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="19">
         <v>43747</v>
@@ -1808,7 +1708,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="19">
         <v>43747</v>
@@ -1824,12 +1724,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="22" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
+    <row r="15" spans="1:6" ht="153">
+      <c r="A15" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="19">
         <v>43755</v>
@@ -1842,15 +1742,15 @@
         <v>20</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="22" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="19">
         <v>43776</v>
@@ -1868,10 +1768,10 @@
     </row>
     <row r="17" spans="1:6" ht="22" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="19">
         <v>43811</v>
@@ -1889,7 +1789,7 @@
     </row>
     <row r="18" spans="1:6" ht="22" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="20">
@@ -1936,14 +1836,14 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
     <col min="6" max="6" width="39.1640625" customWidth="1"/>
@@ -1975,23 +1875,29 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="43" customHeight="1">
-      <c r="A4" s="15"/>
+      <c r="A4" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="43" customHeight="1">
-      <c r="A5" s="15"/>
+      <c r="A5" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="43" customHeight="1">
-      <c r="A6" s="15"/>
+      <c r="A6" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1999,7 +1905,9 @@
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="43" customHeight="1">
-      <c r="A7" s="15"/>
+      <c r="A7" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2039,6 +1947,10 @@
       <c r="F11" s="15"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:F3" xr:uid="{5052F2EB-E94B-ED48-BC6A-E72361B7D01A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F7">
+    <sortCondition descending="1" ref="A3"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc-danielscherer/Studium/02 Semester/3. Semester/Datenkommunikation/Praktikum/Datenkommunikation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonsymhoven/Desktop/Uni/FHAW/WS_2019_2020/Datenkommunikation/Datenkommunikation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3794A29C-D29D-9F45-A9DD-A8369E6AD7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68294EED-D8AB-8B44-8E2A-FF7762B4BB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1180" windowWidth="38400" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -488,13 +488,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -533,7 +533,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1048,10 +1048,10 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43761</c:v>
+                  <c:v>43796</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43761</c:v>
+                  <c:v>43796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,7 +1534,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1572,7 +1572,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="30">
         <f ca="1">TODAY()</f>
-        <v>43761</v>
+        <v>43796</v>
       </c>
       <c r="E3" s="13">
         <v>0</v>
@@ -1586,7 +1586,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="30">
         <f ca="1">TODAY()</f>
-        <v>43761</v>
+        <v>43796</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
@@ -1742,7 +1742,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="22" customHeight="1">
@@ -1763,7 +1763,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="22" customHeight="1">

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonsymhoven/Desktop/Uni/FHAW/WS_2019_2020/Datenkommunikation/Datenkommunikation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68294EED-D8AB-8B44-8E2A-FF7762B4BB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E59BFD-535A-1247-A153-D3A2893EFF47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1180" windowWidth="38400" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Start</t>
   </si>
@@ -146,12 +146,6 @@
     <t>Gruppeneinteilung</t>
   </si>
   <si>
-    <t>Audit-Log-Server (Teilaufgabe 2)</t>
-  </si>
-  <si>
-    <t>Systemtests (Teilaufgabe 3)</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
   </si>
   <si>
     <t>Prof. Mandl</t>
-  </si>
-  <si>
-    <t>alle</t>
   </si>
   <si>
     <t>Einarbeitung (Teilaufgabe 1)
@@ -182,6 +173,24 @@
   </si>
   <si>
     <t xml:space="preserve">Marc-Daniel Scherer </t>
+  </si>
+  <si>
+    <t>Benchmarks und Artifacts</t>
+  </si>
+  <si>
+    <t>Analyse der Benchmark Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netzwerkanalyse mitWireshark </t>
+  </si>
+  <si>
+    <t>UDP LogServer</t>
+  </si>
+  <si>
+    <t>TCP LogServer</t>
+  </si>
+  <si>
+    <t>Administrationsprogramm</t>
   </si>
 </sst>
 </file>
@@ -191,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -275,6 +284,21 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -417,7 +441,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -485,6 +509,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -575,9 +617,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Projektplan!$A$13:$A$18</c:f>
+              <c:f>Projektplan!$A$13:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Kick-off-Meeting</c:v>
                 </c:pt>
@@ -590,12 +632,24 @@
 (Architekturskizzen, Klassenmodel- le, Ablaufdiagramme, Sequenzdiagramme, Zustandsautomaten, ...) verständlich dokumentieren</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Audit-Log-Server (Teilaufgabe 2)</c:v>
+                  <c:v>UDP LogServer</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Systemtests (Teilaufgabe 3)</c:v>
+                  <c:v>TCP LogServer</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Administrationsprogramm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Benchmarks und Artifacts</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Analyse der Benchmark Files</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netzwerkanalyse mitWireshark </c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Abgabe</c:v>
                 </c:pt>
               </c:strCache>
@@ -603,10 +657,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Projektplan!$C$13:$C$18</c:f>
+              <c:f>Projektplan!$C$13:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>dd\.mm\.yy;@</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43747</c:v>
                 </c:pt>
@@ -620,10 +674,22 @@
                   <c:v>43776</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>43790</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>43811</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>43832</c:v>
+                <c:pt idx="7">
+                  <c:v>43819</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43820</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,9 +998,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Projektplan!$A$13:$A$18</c:f>
+              <c:f>Projektplan!$A$13:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Kick-off-Meeting</c:v>
                 </c:pt>
@@ -947,12 +1013,24 @@
 (Architekturskizzen, Klassenmodel- le, Ablaufdiagramme, Sequenzdiagramme, Zustandsautomaten, ...) verständlich dokumentieren</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Audit-Log-Server (Teilaufgabe 2)</c:v>
+                  <c:v>UDP LogServer</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Systemtests (Teilaufgabe 3)</c:v>
+                  <c:v>TCP LogServer</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Administrationsprogramm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Benchmarks und Artifacts</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Analyse der Benchmark Files</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netzwerkanalyse mitWireshark </c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Abgabe</c:v>
                 </c:pt>
               </c:strCache>
@@ -960,10 +1038,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Projektplan!$E$13:$E$18</c:f>
+              <c:f>Projektplan!$E$13:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -974,13 +1052,25 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,10 +1138,10 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43796</c:v>
+                  <c:v>43820</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43796</c:v>
+                  <c:v>43820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,13 +1264,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1531,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1556,10 +1646,10 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19">
@@ -1572,7 +1662,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="30">
         <f ca="1">TODAY()</f>
-        <v>43796</v>
+        <v>43820</v>
       </c>
       <c r="E3" s="13">
         <v>0</v>
@@ -1586,7 +1676,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="30">
         <f ca="1">TODAY()</f>
-        <v>43796</v>
+        <v>43820</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
@@ -1640,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="23">
-        <v>0.01</v>
+        <v>0.99</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="28" t="s">
@@ -1687,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="19">
         <v>43747</v>
@@ -1696,7 +1786,7 @@
         <v>43748</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ref="E13:E17" si="0">D13-C13</f>
+        <f t="shared" ref="E13:E16" si="0">D13-C13</f>
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1707,9 +1797,7 @@
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="19">
         <v>43747</v>
       </c>
@@ -1726,11 +1814,9 @@
     </row>
     <row r="15" spans="1:6" ht="153">
       <c r="A15" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="19">
         <v>43755</v>
       </c>
@@ -1738,90 +1824,162 @@
         <v>43775</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
+        <f>D15-C15</f>
         <v>20</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="22" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="19">
         <v>43776</v>
       </c>
       <c r="D16" s="19">
-        <v>43810</v>
+        <v>43789</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f>D16-C16</f>
+        <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="22" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="19">
+        <v>49</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="35">
+        <v>43790</v>
+      </c>
+      <c r="D17" s="35">
+        <v>43799</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ref="E17:E21" si="1">D17-C17</f>
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="22" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="35">
+        <v>43800</v>
+      </c>
+      <c r="D18" s="35">
+        <v>43810</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="22" customHeight="1">
+      <c r="A19" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="36">
         <v>43811</v>
       </c>
-      <c r="D17" s="19">
-        <v>43831</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="22" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="20">
-        <v>43832</v>
-      </c>
-      <c r="D18" s="20">
-        <v>43836</v>
-      </c>
-      <c r="E18" s="7">
-        <f>D18-C18</f>
-        <v>4</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="29" customHeight="1"/>
+      <c r="D19" s="36">
+        <v>43818</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="22" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="19">
+        <v>43819</v>
+      </c>
+      <c r="D20" s="19">
+        <v>43820</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="22" customHeight="1">
+      <c r="A21" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="36">
+        <v>43820</v>
+      </c>
+      <c r="D21" s="36">
+        <v>43821</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="20">
+        <v>43839</v>
+      </c>
+      <c r="D22" s="20">
+        <v>43840</v>
+      </c>
+      <c r="E22" s="7">
+        <f>D22-C22</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="29" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="F13:F17">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+  <conditionalFormatting sqref="F20 F13:F18">
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
       <formula>$D$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
       <formula>$D$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
       <formula>$D$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
       <formula>$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13:F17" xr:uid="{9C8773A7-94BB-AE48-A16E-A070F05A1E7C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20 F13:F18" xr:uid="{9C8773A7-94BB-AE48-A16E-A070F05A1E7C}">
       <formula1>$D$7:$D$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -1836,7 +1994,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1876,7 +2034,7 @@
     </row>
     <row r="4" spans="1:6" ht="43" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -1886,7 +2044,7 @@
     </row>
     <row r="5" spans="1:6" ht="43" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1896,7 +2054,7 @@
     </row>
     <row r="6" spans="1:6" ht="43" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -1906,7 +2064,7 @@
     </row>
     <row r="7" spans="1:6" ht="43" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -1965,7 +2123,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" customWidth="1"/>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonsymhoven/Desktop/Uni/FHAW/WS_2019_2020/Datenkommunikation/Datenkommunikation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc-danielscherer/Studium/02 Semester/3. Semester/Datenkommunikation/Praktikum/Datenkommunikation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E59BFD-535A-1247-A153-D3A2893EFF47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E891B0E-28AE-6544-886D-4DD76052838F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -158,39 +160,39 @@
     <t>Prof. Mandl</t>
   </si>
   <si>
+    <t>Simon Potye</t>
+  </si>
+  <si>
+    <t>Simon Symhoven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magdalena Hegel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc-Daniel Scherer </t>
+  </si>
+  <si>
+    <t>Benchmarks und Artifacts</t>
+  </si>
+  <si>
+    <t>Analyse der Benchmark Files</t>
+  </si>
+  <si>
+    <t>UDP LogServer</t>
+  </si>
+  <si>
+    <t>TCP LogServer</t>
+  </si>
+  <si>
+    <t>Administrationsprogramm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netzwerkanalyse mit Wireshark </t>
+  </si>
+  <si>
     <t>Einarbeitung (Teilaufgabe 1)
 Powerpoint-Foliensatz mit Grafiken 
-(Architekturskizzen, Klassenmodel- le, Ablaufdiagramme, Sequenzdiagramme, Zustandsautomaten, ...) verständlich dokumentieren</t>
-  </si>
-  <si>
-    <t>Simon Potye</t>
-  </si>
-  <si>
-    <t>Simon Symhoven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magdalena Hegel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marc-Daniel Scherer </t>
-  </si>
-  <si>
-    <t>Benchmarks und Artifacts</t>
-  </si>
-  <si>
-    <t>Analyse der Benchmark Files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netzwerkanalyse mitWireshark </t>
-  </si>
-  <si>
-    <t>UDP LogServer</t>
-  </si>
-  <si>
-    <t>TCP LogServer</t>
-  </si>
-  <si>
-    <t>Administrationsprogramm</t>
+(Architekturskizzen, Klassenmodelle, Ablaufdiagramme, Sequenzdiagramme, Zustandsautomaten, ...) verständlich dokumentieren</t>
   </si>
 </sst>
 </file>
@@ -530,13 +532,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -575,7 +577,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -588,7 +590,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36022632642123925"/>
+          <c:y val="4.7403436272593587E-2"/>
+          <c:w val="0.62424032238116833"/>
+          <c:h val="0.91477150462575152"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -629,7 +641,7 @@
                 <c:pt idx="2">
                   <c:v>Einarbeitung (Teilaufgabe 1)
 Powerpoint-Foliensatz mit Grafiken 
-(Architekturskizzen, Klassenmodel- le, Ablaufdiagramme, Sequenzdiagramme, Zustandsautomaten, ...) verständlich dokumentieren</c:v>
+(Architekturskizzen, Klassenmodelle, Ablaufdiagramme, Sequenzdiagramme, Zustandsautomaten, ...) verständlich dokumentieren</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>UDP LogServer</c:v>
@@ -647,7 +659,7 @@
                   <c:v>Analyse der Benchmark Files</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netzwerkanalyse mitWireshark </c:v>
+                  <c:v>Netzwerkanalyse mit Wireshark </c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Abgabe</c:v>
@@ -1010,7 +1022,7 @@
                 <c:pt idx="2">
                   <c:v>Einarbeitung (Teilaufgabe 1)
 Powerpoint-Foliensatz mit Grafiken 
-(Architekturskizzen, Klassenmodel- le, Ablaufdiagramme, Sequenzdiagramme, Zustandsautomaten, ...) verständlich dokumentieren</c:v>
+(Architekturskizzen, Klassenmodelle, Ablaufdiagramme, Sequenzdiagramme, Zustandsautomaten, ...) verständlich dokumentieren</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>UDP LogServer</c:v>
@@ -1028,7 +1040,7 @@
                   <c:v>Analyse der Benchmark Files</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netzwerkanalyse mitWireshark </c:v>
+                  <c:v>Netzwerkanalyse mit Wireshark </c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Abgabe</c:v>
@@ -1138,10 +1150,10 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43820</c:v>
+                  <c:v>43833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43820</c:v>
+                  <c:v>43833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,16 +1274,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1623,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1662,7 +1674,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="30">
         <f ca="1">TODAY()</f>
-        <v>43820</v>
+        <v>43833</v>
       </c>
       <c r="E3" s="13">
         <v>0</v>
@@ -1676,7 +1688,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="30">
         <f ca="1">TODAY()</f>
-        <v>43820</v>
+        <v>43833</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
@@ -1786,7 +1798,7 @@
         <v>43748</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ref="E13:E16" si="0">D13-C13</f>
+        <f t="shared" ref="E13:E14" si="0">D13-C13</f>
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1814,7 +1826,7 @@
     </row>
     <row r="15" spans="1:6" ht="153">
       <c r="A15" s="31" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="19">
@@ -1833,7 +1845,7 @@
     </row>
     <row r="16" spans="1:6" ht="22" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="19">
@@ -1852,7 +1864,7 @@
     </row>
     <row r="17" spans="1:6" ht="22" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="35">
@@ -1871,7 +1883,7 @@
     </row>
     <row r="18" spans="1:6" ht="22" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="35">
@@ -1890,7 +1902,7 @@
     </row>
     <row r="19" spans="1:6" ht="22" customHeight="1">
       <c r="A19" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="36">
@@ -1909,7 +1921,7 @@
     </row>
     <row r="20" spans="1:6" ht="22" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="19">
@@ -1928,7 +1940,7 @@
     </row>
     <row r="21" spans="1:6" ht="22" customHeight="1">
       <c r="A21" s="32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="36">
@@ -2034,7 +2046,7 @@
     </row>
     <row r="4" spans="1:6" ht="43" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -2044,7 +2056,7 @@
     </row>
     <row r="5" spans="1:6" ht="43" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -2054,7 +2066,7 @@
     </row>
     <row r="6" spans="1:6" ht="43" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2064,7 +2076,7 @@
     </row>
     <row r="7" spans="1:6" ht="43" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,18 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc-danielscherer/Studium/02 Semester/3. Semester/Datenkommunikation/Praktikum/Datenkommunikation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E891B0E-28AE-6544-886D-4DD76052838F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4917A959-72F1-EB4C-BE3F-D958DF0386A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
-    <sheet name="Stakeholder-Liste" sheetId="2" r:id="rId2"/>
-    <sheet name="Kommunikationsplan" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Stakeholder-Liste'!$A$3:$F$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Start</t>
   </si>
@@ -46,12 +41,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
     <t>Startdatum</t>
   </si>
   <si>
@@ -61,12 +50,6 @@
     <t>Projektname</t>
   </si>
   <si>
-    <t>Kick-off-Meeting</t>
-  </si>
-  <si>
-    <t>Projektleistungen</t>
-  </si>
-  <si>
     <t>Projektumfang</t>
   </si>
   <si>
@@ -97,102 +80,62 @@
     <t>Nicht begonnen</t>
   </si>
   <si>
-    <t>Stakeholder -Liste</t>
-  </si>
-  <si>
-    <t>Aufgabe im Projekt</t>
-  </si>
-  <si>
-    <t>E-Mail</t>
-  </si>
-  <si>
-    <t>Anforderungen</t>
-  </si>
-  <si>
-    <t>Erwartungen</t>
-  </si>
-  <si>
-    <t>Kommunikationsplan</t>
-  </si>
-  <si>
-    <t>Leistung</t>
-  </si>
-  <si>
-    <t>Art d. Kommunikation</t>
-  </si>
-  <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
-    <t>Häufigkeit</t>
-  </si>
-  <si>
-    <t>Modus</t>
-  </si>
-  <si>
-    <t>Zielgruppe</t>
-  </si>
-  <si>
-    <t>Erbracht durch</t>
-  </si>
-  <si>
     <t>Projektleitung</t>
   </si>
   <si>
-    <t>Datenkommunikation</t>
-  </si>
-  <si>
     <t>Hr.  Prof. Dr. Mandl</t>
   </si>
   <si>
     <t>Gruppeneinteilung</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Abgabe</t>
   </si>
   <si>
     <t>Prof. Mandl</t>
   </si>
   <si>
-    <t>Simon Potye</t>
-  </si>
-  <si>
-    <t>Simon Symhoven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magdalena Hegel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marc-Daniel Scherer </t>
-  </si>
-  <si>
-    <t>Benchmarks und Artifacts</t>
-  </si>
-  <si>
-    <t>Analyse der Benchmark Files</t>
-  </si>
-  <si>
-    <t>UDP LogServer</t>
-  </si>
-  <si>
-    <t>TCP LogServer</t>
-  </si>
-  <si>
-    <t>Administrationsprogramm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netzwerkanalyse mit Wireshark </t>
-  </si>
-  <si>
-    <t>Einarbeitung (Teilaufgabe 1)
-Powerpoint-Foliensatz mit Grafiken 
-(Architekturskizzen, Klassenmodelle, Ablaufdiagramme, Sequenzdiagramme, Zustandsautomaten, ...) verständlich dokumentieren</t>
+    <t>Teilaufgabe 1: Dokumentation und Erstellung Präsentation</t>
+  </si>
+  <si>
+    <t>Teilaufgabe 2: Implementierung UDP LogServer</t>
+  </si>
+  <si>
+    <t>Teilaufgabe 2: Implementierung TCP LogServer</t>
+  </si>
+  <si>
+    <t>Teilaufgabe 2: Implementierung Administrationsprogramm</t>
+  </si>
+  <si>
+    <t>Teilaufgabe 3: Benchmarks und Artifacts</t>
+  </si>
+  <si>
+    <t>Teilaufgabe 3: Analyse der Benchmark Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teilaufgabe 3: Netzwerkanalyse mit Wireshark </t>
+  </si>
+  <si>
+    <t>12 Wochen</t>
+  </si>
+  <si>
+    <t>Datenkommunikation 
+Studienarbeit WS 2019/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hegel, Scherer </t>
+  </si>
+  <si>
+    <t>Symhoven, Potye</t>
+  </si>
+  <si>
+    <t>Hegel, Scherer, Symhoven, Potye</t>
+  </si>
+  <si>
+    <t>Kick-Off-Meeting</t>
+  </si>
+  <si>
+    <t>Finalisierung der Abgabe</t>
   </si>
 </sst>
 </file>
@@ -202,24 +145,9 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -245,65 +173,76 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF008000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri (Body)"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,14 +261,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -347,17 +280,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -369,34 +291,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -433,111 +327,362 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -629,39 +774,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Projektplan!$A$13:$A$22</c:f>
+              <c:f>Projektplan!$A$13:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>Kick-off-Meeting</c:v>
+                  <c:v>Kick-Off-Meeting</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Gruppeneinteilung</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Einarbeitung (Teilaufgabe 1)
-Powerpoint-Foliensatz mit Grafiken 
-(Architekturskizzen, Klassenmodelle, Ablaufdiagramme, Sequenzdiagramme, Zustandsautomaten, ...) verständlich dokumentieren</c:v>
+                  <c:v>Teilaufgabe 1: Dokumentation und Erstellung Präsentation</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>UDP LogServer</c:v>
+                  <c:v>Teilaufgabe 2: Implementierung UDP LogServer</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TCP LogServer</c:v>
+                  <c:v>Teilaufgabe 2: Implementierung TCP LogServer</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Administrationsprogramm</c:v>
+                  <c:v>Teilaufgabe 2: Implementierung Administrationsprogramm</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Benchmarks und Artifacts</c:v>
+                  <c:v>Teilaufgabe 3: Benchmarks und Artifacts</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Analyse der Benchmark Files</c:v>
+                  <c:v>Teilaufgabe 3: Analyse der Benchmark Files</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netzwerkanalyse mit Wireshark </c:v>
+                  <c:v>Teilaufgabe 3: Netzwerkanalyse mit Wireshark </c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Finalisierung der Abgabe</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Abgabe</c:v>
                 </c:pt>
               </c:strCache>
@@ -669,15 +815,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Projektplan!$C$13:$C$22</c:f>
+              <c:f>Projektplan!$C$13:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>dd\.mm\.yy;@</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43747</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43747</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>43755</c:v>
@@ -701,6 +847,9 @@
                   <c:v>43820</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>43821</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>43839</c:v>
                 </c:pt>
               </c:numCache>
@@ -973,6 +1122,81 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-EAA0-7346-8FAE-1E1C5FE3CA0F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -980,22 +1204,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1010,39 +1218,40 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Projektplan!$A$13:$A$22</c:f>
+              <c:f>Projektplan!$A$13:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>Kick-off-Meeting</c:v>
+                  <c:v>Kick-Off-Meeting</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Gruppeneinteilung</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Einarbeitung (Teilaufgabe 1)
-Powerpoint-Foliensatz mit Grafiken 
-(Architekturskizzen, Klassenmodelle, Ablaufdiagramme, Sequenzdiagramme, Zustandsautomaten, ...) verständlich dokumentieren</c:v>
+                  <c:v>Teilaufgabe 1: Dokumentation und Erstellung Präsentation</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>UDP LogServer</c:v>
+                  <c:v>Teilaufgabe 2: Implementierung UDP LogServer</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TCP LogServer</c:v>
+                  <c:v>Teilaufgabe 2: Implementierung TCP LogServer</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Administrationsprogramm</c:v>
+                  <c:v>Teilaufgabe 2: Implementierung Administrationsprogramm</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Benchmarks und Artifacts</c:v>
+                  <c:v>Teilaufgabe 3: Benchmarks und Artifacts</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Analyse der Benchmark Files</c:v>
+                  <c:v>Teilaufgabe 3: Analyse der Benchmark Files</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netzwerkanalyse mit Wireshark </c:v>
+                  <c:v>Teilaufgabe 3: Netzwerkanalyse mit Wireshark </c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Finalisierung der Abgabe</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Abgabe</c:v>
                 </c:pt>
               </c:strCache>
@@ -1050,15 +1259,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Projektplan!$E$13:$E$22</c:f>
+              <c:f>Projektplan!$E$13:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
@@ -1082,6 +1291,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1117,9 +1329,6 @@
               <c:f>Projektplan!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Y</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1149,12 +1358,6 @@
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>43833</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43833</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1164,12 +1367,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1202,6 +1399,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="164017456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1213,6 +1420,7 @@
         <c:axId val="164017456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="43845"/>
           <c:min val="43745"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1222,9 +1430,21 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="164016896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="7"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="55387359"/>
@@ -1262,6 +1482,19 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
@@ -1275,15 +1508,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>307879</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>43487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>728134</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>56188</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1633,348 +1866,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="19">
-      <c r="A2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>33</v>
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
-    <row r="3" spans="1:6" ht="19">
-      <c r="A3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>34</v>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="30">
-        <f ca="1">TODAY()</f>
-        <v>43833</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
     </row>
-    <row r="4" spans="1:6" ht="19">
-      <c r="A4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="24"/>
+    <row r="4" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="30">
-        <f ca="1">TODAY()</f>
-        <v>43833</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="20" thickBot="1">
-      <c r="A5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="13"/>
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="39">
+        <v>43745</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="19">
-      <c r="A7" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="22">
-        <v>43745</v>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="40">
+        <v>43840</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="26" t="s">
-        <v>16</v>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="19">
-      <c r="A8" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="22">
-        <v>43836</v>
+    <row r="8" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="41">
+        <v>0.99</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="27" t="s">
-        <v>17</v>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="19">
-      <c r="A9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="23">
-        <v>0.99</v>
-      </c>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="28" t="s">
-        <v>18</v>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="20" thickBot="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11"/>
+    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="29" t="s">
-        <v>15</v>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="22" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="19">
+    <row r="13" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="28">
         <v>43747</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="28">
         <v>43748</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="27">
         <f t="shared" ref="E13:E14" si="0">D13-C13</f>
         <v>1</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
+      <c r="F13" s="29" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="22" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="19">
-        <v>43747</v>
-      </c>
-      <c r="D14" s="19">
+    <row r="14" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11">
+        <v>43748</v>
+      </c>
+      <c r="D14" s="11">
         <v>43754</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="153">
-      <c r="A15" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="19">
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="11">
         <v>43755</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="11">
         <v>43775</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="10">
         <f>D15-C15</f>
         <v>20</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>15</v>
+      <c r="F15" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="22" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="19">
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="11">
         <v>43776</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="11">
         <v>43789</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="10">
         <f>D16-C16</f>
         <v>13</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>15</v>
+      <c r="F16" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="22" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="35">
+    <row r="17" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="12">
         <v>43790</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="12">
         <v>43799</v>
       </c>
-      <c r="E17" s="3">
-        <f t="shared" ref="E17:E21" si="1">D17-C17</f>
+      <c r="E17" s="10">
+        <f t="shared" ref="E17:E22" si="1">D17-C17</f>
         <v>9</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>15</v>
+      <c r="F17" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="22" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="35">
+    <row r="18" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12">
         <v>43800</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="12">
         <v>43810</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
+      <c r="F18" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="22" customHeight="1">
-      <c r="A19" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="36">
+    <row r="19" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="13">
         <v>43811</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="13">
         <v>43818</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F19" s="37" t="s">
-        <v>15</v>
+      <c r="F19" s="21" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="22" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="19">
+    <row r="20" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="11">
         <v>43819</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="11">
         <v>43820</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>15</v>
+      <c r="F20" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="22" customHeight="1">
-      <c r="A21" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="36">
+    <row r="21" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="13">
         <v>43820</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="13">
         <v>43821</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F21" s="37" t="s">
-        <v>15</v>
+      <c r="F21" s="21" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="22" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="20">
+    <row r="22" spans="1:6" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="32">
+        <v>43821</v>
+      </c>
+      <c r="D22" s="32">
         <v>43839</v>
       </c>
-      <c r="D22" s="20">
+      <c r="E22" s="31">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24">
+        <v>43839</v>
+      </c>
+      <c r="D23" s="24">
         <v>43840</v>
       </c>
-      <c r="E22" s="7">
-        <f>D22-C22</f>
+      <c r="E23" s="23">
+        <f>D23-C23</f>
         <v>1</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F23" s="25"/>
     </row>
-    <row r="23" spans="1:6" ht="29" customHeight="1"/>
+    <row r="24" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="F20 F13:F18">
     <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
@@ -1999,288 +2255,4 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="40">
-      <c r="A3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="43" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" ht="43" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" ht="43" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="43" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="43" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" ht="43" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" ht="43" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:F3" xr:uid="{5052F2EB-E94B-ED48-BC6A-E72361B7D01A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F7">
-    <sortCondition descending="1" ref="A3"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19">
-      <c r="A3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" ht="43" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" ht="43" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" ht="43" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" ht="43" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" ht="43" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" ht="43" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" ht="43" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="43" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" ht="43" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" ht="43" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" ht="43" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>